--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.175480243006859</v>
+        <v>1427.920568358357</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.175480243006859</v>
+        <v>1427.920568358357</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77268.99325863237</v>
+        <v>5162588.496803669</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77268.99325863237</v>
+        <v>5162588.496803669</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265757767.278521</v>
+        <v>47178774.07531009</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13780.04060551087</v>
+        <v>1164233.96597866</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26179.61134989583</v>
+        <v>2090639.336137085</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38579.18209428075</v>
+        <v>3017044.70629551</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51242.40914619158</v>
+        <v>3942521.557234892</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63905.63619810243</v>
+        <v>4867998.408174273</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76568.86325001327</v>
+        <v>5793475.259113654</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89232.09030192411</v>
+        <v>6718952.11005303</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101895.317353835</v>
+        <v>7644428.960992407</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114567.4010277075</v>
+        <v>8568874.758765873</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127231.6326468523</v>
+        <v>9494551.51858482</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139894.8558043438</v>
+        <v>10420028.3695242</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152558.0789618352</v>
+        <v>11345505.22046358</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165221.306013746</v>
+        <v>12270982.07140297</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>177896.7621633326</v>
+        <v>13195627.77805602</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>190584.5692761771</v>
+        <v>14118965.26599089</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
